--- a/data/Fig_1.xlsx
+++ b/data/Fig_1.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981942D-3C5B-4CF5-995E-A63D057471F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -99,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,6 +176,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8001A188-F3B5-4D79-97EB-DCAC40E84581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7376160" cy="5033772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,26 +495,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="16.77734375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -486,7 +543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -678,12 +735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -747,7 +804,7 @@
         <v>0.54733500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -779,7 +836,7 @@
         <v>4.5778400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -811,7 +868,7 @@
         <v>32.709850000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,7 +900,7 @@
         <v>43.965290000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,12 +932,12 @@
         <v>45.098529999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -944,7 +1001,7 @@
         <v>2.7838509999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -976,7 +1033,7 @@
         <v>18.970079999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1065,7 @@
         <v>53.998269999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1097,7 @@
         <v>72.989490000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1072,12 +1129,12 @@
         <v>76.293059999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1198,7 @@
         <v>6.6716680000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1230,7 @@
         <v>27.026009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1262,7 @@
         <v>59.052379999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1294,7 @@
         <v>73.976029999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1269,12 +1326,12 @@
         <v>77.198700000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1395,7 @@
         <v>9.97593</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1427,7 @@
         <v>33.051029999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1459,7 @@
         <v>67.814440000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1434,7 +1491,7 @@
         <v>81.784859999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1466,12 +1523,12 @@
         <v>84.720879999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1592,7 @@
         <v>9.3003750000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1624,7 @@
         <v>27.113859999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1599,7 +1656,7 @@
         <v>61.519500000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1688,7 @@
         <v>75.965170000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1663,12 +1720,12 @@
         <v>79.247829999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1732,7 +1789,7 @@
         <v>11.069419999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1821,7 @@
         <v>19.932729999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +1853,7 @@
         <v>44.009610000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1885,7 @@
         <v>59.58052</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1860,12 +1917,12 @@
         <v>64.135099999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +1986,7 @@
         <v>7.9047280000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +2018,7 @@
         <v>12.695449999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1993,7 +2050,7 @@
         <v>28.23836</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2082,7 @@
         <v>40.625160000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2057,12 +2114,12 @@
         <v>46.147370000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E58" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +2183,7 @@
         <v>2.6286710000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -2158,7 +2215,7 @@
         <v>3.867845</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -2190,7 +2247,7 @@
         <v>8.1881529999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -2222,7 +2279,7 @@
         <v>14.571680000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -2254,12 +2311,12 @@
         <v>18.360379999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="E65" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -2291,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2323,7 +2380,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -2355,7 +2412,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -2387,7 +2444,7 @@
         <v>46.63</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +2476,7 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2455,4 +2512,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC91B9-3F5F-4024-95F4-A6AC39EB2DB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>